--- a/f_kansen.xlsx
+++ b/f_kansen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15451861-979F-A64C-9F0F-81A97225138B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5559603-19C7-0241-9ACF-3DAC0EECE96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/f_kansen.xlsx
+++ b/f_kansen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5559603-19C7-0241-9ACF-3DAC0EECE96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8DC14-84FA-4549-9ADA-5314572358F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:G994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>

--- a/f_kansen.xlsx
+++ b/f_kansen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8DC14-84FA-4549-9ADA-5314572358F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364DAF42-9AB1-F345-98CC-13254B00A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>C. 病原体、感染経路、治療法</t>
   </si>
   <si>
-    <t>感染症の成立に必要な要因は次のうちどれか。</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A. 施設内での手指消毒や流水による手洗い
 </t>
   </si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>C. 施設内での運動やレクリエーションの増加</t>
-  </si>
-  <si>
-    <t>感染経路の遮断において重要な対策は次のうちどれか。</t>
   </si>
   <si>
     <t>手指消毒の後、何を使用して手を拭くべきですか？
@@ -695,6 +689,14 @@
       </rPr>
       <t>施設内での運動やレクリエーションの増加</t>
     </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>感染症の成立に必要な要因は次のうちどれか？</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>感染経路の遮断において重要な対策は次のうちどれか？</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -777,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -805,6 +807,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1025,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1078,8 +1081,8 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
+      <c r="G2" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -1087,22 +1090,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -1110,22 +1113,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -1133,22 +1136,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -1156,22 +1159,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -1179,22 +1182,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -1202,22 +1205,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
@@ -1225,22 +1228,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
@@ -1248,22 +1251,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -1271,22 +1274,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -1294,22 +1297,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -1317,22 +1320,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -1340,22 +1343,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -1363,22 +1366,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -1386,22 +1389,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -1409,22 +1412,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
@@ -1432,22 +1435,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -1455,22 +1458,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
@@ -1478,22 +1481,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
@@ -1501,22 +1504,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
@@ -1524,22 +1527,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
@@ -1547,22 +1550,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
@@ -1570,22 +1573,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
@@ -1593,22 +1596,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
